--- a/PAR-CLIP_Tutorial_CstF64/2016-01-17_Base_substitution_frequency.xlsx
+++ b/PAR-CLIP_Tutorial_CstF64/2016-01-17_Base_substitution_frequency.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f8eb8f9a1447993/NGS解析/Scripts/anno_gtf_prep/gtf_prep_for_CLIP-seq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naoto\OneDrive\NGS解析\NGS-Tutorial\PAR-CLIP_Tutorial_CstF64\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$18:$B$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -263,40 +263,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.095480865887569</c:v>
+                  <c:v>2.0606822002280092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7543429743489698</c:v>
+                  <c:v>2.8608640617641163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1461316727732713</c:v>
+                  <c:v>3.0445792094183632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1424410591009599</c:v>
+                  <c:v>1.1061315690510338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.803971880705487</c:v>
+                  <c:v>1.1702516996876442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7358588301682816</c:v>
+                  <c:v>2.7729139010782387</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7111902892798612</c:v>
+                  <c:v>1.5820945276641887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.791891413267543</c:v>
+                  <c:v>1.1519083598177351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2458727041838245</c:v>
+                  <c:v>3.9246146564027007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3721002119021</c:v>
+                  <c:v>3.5478866455740499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.955565694641798</c:v>
+                  <c:v>73.163204416874578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2451524037403345</c:v>
+                  <c:v>3.6148687524393526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,11 +312,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="151968080"/>
-        <c:axId val="151969648"/>
+        <c:axId val="174873048"/>
+        <c:axId val="174875008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151968080"/>
+        <c:axId val="174873048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,7 +353,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151969648"/>
+        <c:crossAx val="174875008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -361,7 +361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151969648"/>
+        <c:axId val="174875008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +462,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151968080"/>
+        <c:crossAx val="174873048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1060,15 +1060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1356,7 +1356,7 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1366,11 +1366,11 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>300824</v>
+        <v>138964</v>
       </c>
       <c r="C2">
         <f>B2/$B$14*100</f>
-        <v>3.095480865887569</v>
+        <v>2.0606822002280092</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,11 +1378,11 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>753580</v>
+        <v>192925</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C13" si="0">B3/$B$14*100</f>
-        <v>7.7543429743489698</v>
+        <v>2.8608640617641163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>402928</v>
+        <v>205314</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>4.1461316727732713</v>
+        <v>3.0445792094183632</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,11 +1402,11 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>208206</v>
+        <v>74593</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.1424410591009599</v>
+        <v>1.1061315690510338</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,11 +1414,11 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>175313</v>
+        <v>78917</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.803971880705487</v>
+        <v>1.1702516996876442</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1426,11 +1426,11 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>363057</v>
+        <v>186994</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>3.7358588301682816</v>
+        <v>2.7729139010782387</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,11 +1438,11 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>263478</v>
+        <v>106690</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2.7111902892798612</v>
+        <v>1.5820945276641887</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,11 +1450,11 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>174139</v>
+        <v>77680</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1.791891413267543</v>
+        <v>1.1519083598177351</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,11 +1462,11 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>412621</v>
+        <v>264660</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>4.2458727041838245</v>
+        <v>3.9246146564027007</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,11 +1474,11 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>424888</v>
+        <v>239255</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>4.3721002119021</v>
+        <v>3.5478866455740499</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,11 +1486,11 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>5826582</v>
+        <v>4933828</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>59.955565694641798</v>
+        <v>73.163204416874578</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,23 +1498,23 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>412551</v>
+        <v>243772</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>4.2451524037403345</v>
+        <v>3.6148687524393526</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>SUM(B2:B13)</f>
-        <v>9718167</v>
+        <v>6743592</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:B13">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A18:B18">
+    <sortState ref="A19:B30">
+      <sortCondition ref="A18"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
